--- a/Other/Calculations.xlsx
+++ b/Other/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c2057027910c48/Documents/Electronics/Power Supply/Instructables/Design/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1449" documentId="8_{70FE8CA8-81BC-CC4D-977F-8C41F9D6807F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1753243C-09D0-D447-A0BC-598AB8EFB238}"/>
+  <xr:revisionPtr revIDLastSave="1479" documentId="8_{70FE8CA8-81BC-CC4D-977F-8C41F9D6807F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5A6179A1-9EFD-0246-A855-B14AFD7BC860}"/>
   <bookViews>
-    <workbookView xWindow="52060" yWindow="13800" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{F418E1D3-CA17-C24F-A068-4F2B25CD11AA}"/>
+    <workbookView xWindow="52060" yWindow="13800" windowWidth="28040" windowHeight="17440" xr2:uid="{F418E1D3-CA17-C24F-A068-4F2B25CD11AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuse Calcs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="213">
   <si>
     <t>Vin</t>
   </si>
@@ -517,9 +517,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>Shottky diode forward drop</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>Typical Shottky Diode forward voltage</t>
-  </si>
-  <si>
     <t>Need to deal with the power dissipation through heatsink - see Heat Calcs sheet</t>
   </si>
   <si>
@@ -668,6 +662,18 @@
   </si>
   <si>
     <t>Pmain (see LTC1628 calcs)</t>
+  </si>
+  <si>
+    <t>Tjmax</t>
+  </si>
+  <si>
+    <t>Schottky diode forward drop</t>
+  </si>
+  <si>
+    <t>Typical Schottky Diode forward voltage</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A2248E-1E2A-7943-A0DF-2A8AB9A95A27}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1605,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1854,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA8E27-29D7-784A-BAEE-B48F27D1AF93}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2134,16 +2140,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
         <v>207</v>
       </c>
-      <c r="B11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -2349,16 +2355,16 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>16</v>
       </c>
       <c r="F24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -2428,16 +2434,13 @@
         <v>32</v>
       </c>
       <c r="J24" s="1">
-        <f>-1.53</f>
-        <v>-1.53</v>
+        <v>1.53</v>
       </c>
       <c r="K24" s="1">
-        <f>-1.47</f>
-        <v>-1.47</v>
+        <v>1.47</v>
       </c>
       <c r="L24" s="1">
-        <f>-0.264</f>
-        <v>-0.26400000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="M24" s="1">
         <v>0.78300000000000003</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ref="M25:N25" si="2">ABS((M22-M23)*M24)</f>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="L26" s="1">
         <f>L25*$F$23+$B$59</f>
-        <v>27.64</v>
+        <v>27.6</v>
       </c>
       <c r="M26" s="1">
         <f>M25*$F$23+$B$59</f>
@@ -2508,23 +2511,23 @@
       </c>
       <c r="J27" s="1">
         <f>J25*($F$24+$B$64)+$B$59</f>
-        <v>104.52175</v>
+        <v>108.8593</v>
       </c>
       <c r="K27" s="1">
         <f>K25*($F$24+$B$64)+$B$59</f>
-        <v>66.233500000000049</v>
+        <v>68.482600000000062</v>
       </c>
       <c r="L27" s="1">
         <f>L25*($F$24+$B$64)+$B$59</f>
-        <v>26.815000000000001</v>
+        <v>26.885000000000002</v>
       </c>
       <c r="M27" s="1">
         <f>M25*($F$24+$B$64)+$B$59</f>
-        <v>63.758499999999984</v>
+        <v>65.872599999999977</v>
       </c>
       <c r="N27" s="1">
         <f>N25*($F$24+$B$64)+$B$59</f>
-        <v>38.375999999999998</v>
+        <v>39.105600000000003</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2536,23 +2539,23 @@
       </c>
       <c r="J28" s="1">
         <f>J25*($F$24+$B$65)+$B$59</f>
-        <v>90.063250000000011</v>
+        <v>94.400800000000004</v>
       </c>
       <c r="K28" s="1">
         <f>K25*($F$24+$B$65)+$B$59</f>
-        <v>58.736500000000049</v>
+        <v>60.985600000000048</v>
       </c>
       <c r="L28" s="1">
         <f>L25*($F$24+$B$65)+$B$59</f>
-        <v>26.484999999999999</v>
+        <v>26.56</v>
       </c>
       <c r="M28" s="1">
         <f>M25*($F$24+$B$65)+$B$59</f>
-        <v>56.711499999999987</v>
+        <v>58.82559999999998</v>
       </c>
       <c r="N28" s="1">
         <f>N25*($F$24+$B$65)+$B$59</f>
-        <v>35.944000000000003</v>
+        <v>36.6736</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2564,23 +2567,23 @@
       </c>
       <c r="J29" s="13">
         <f>J25*($F$24+$B$66)+$B$59</f>
-        <v>72.71305000000001</v>
+        <v>77.050600000000003</v>
       </c>
       <c r="K29" s="10">
         <f>K25*($F$24+$B$66)+$B$59</f>
-        <v>49.740100000000034</v>
+        <v>51.989200000000039</v>
       </c>
       <c r="L29" s="10">
         <f>L25*($F$24+$B$66)+$B$59</f>
-        <v>26.088999999999999</v>
+        <v>26.17</v>
       </c>
       <c r="M29" s="10">
         <f>M25*($F$24+$B$66)+$B$59</f>
-        <v>48.255099999999985</v>
+        <v>50.369199999999992</v>
       </c>
       <c r="N29" s="10">
         <f>N25*($F$24+$B$66)+$B$59</f>
-        <v>33.025599999999997</v>
+        <v>33.755200000000002</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2592,23 +2595,23 @@
       </c>
       <c r="J30" s="10">
         <f>J25*($F$24+$B$67)+$B$59</f>
-        <v>54.20617</v>
+        <v>58.54372</v>
       </c>
       <c r="K30" s="10">
         <f>K25*($F$24+$B$67)+$B$59</f>
-        <v>40.143940000000022</v>
+        <v>42.393040000000028</v>
       </c>
       <c r="L30" s="10">
         <f>L25*($F$24+$B$67)+$B$59</f>
-        <v>25.666599999999999</v>
+        <v>25.754000000000001</v>
       </c>
       <c r="M30" s="10">
         <f>M25*($F$24+$B$67)+$B$59</f>
-        <v>39.234939999999995</v>
+        <v>41.349039999999988</v>
       </c>
       <c r="N30" s="10">
         <f>N25*($F$24+$B$67)+$B$59</f>
-        <v>29.91264</v>
+        <v>30.642240000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2632,7 +2635,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -2723,7 +2726,7 @@
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J36" s="2">
         <f>(N33*N34*N35)+(N36*N37)</f>
@@ -2938,7 +2941,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
         <v>115</v>
@@ -2964,16 +2967,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>179</v>
-      </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
@@ -3034,7 +3037,7 @@
         <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J49" s="17">
         <f>$J$48*$F$50+$B$59</f>
@@ -3047,10 +3050,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50">
         <v>11</v>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -3107,7 +3110,7 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3360,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E51321-857F-BD40-ADDA-2CE831DA9A55}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="7"/>
@@ -3424,11 +3427,11 @@
         <v>156</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3442,13 +3445,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="1">
         <f>(($B$9-$B$10)/($B$11*(F9*0.000001))*(($B$10+$B$12)/($B$9+$B$12)))</f>
@@ -3466,13 +3469,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="6">
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="1">
         <f>(($B$9-$B$10)/($B$11*(F10*0.000001))*(($B$10+$B$12)/($B$9+$B$12)))</f>
@@ -3490,13 +3493,13 @@
         <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="6">
         <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ref="H11:H13" si="0">(($B$9-$B$10)/($B$11*(F11*0.000001))*(($B$10+$B$12)/($B$9+$B$12)))</f>
@@ -3514,16 +3517,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F12" s="6">
         <v>20</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
@@ -3532,13 +3535,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="6">
         <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
@@ -3547,16 +3550,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,12 +3595,12 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2">
         <f>(B19+B20) / (B18+B20)</f>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3620,13 +3623,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3683,12 +3686,12 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="17">
         <f>(B21*B22^2*((1+(B23*B28))*B24)+(B25*(B18^1.85))*B22*B26*B27)</f>
@@ -3700,7 +3703,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -3711,11 +3714,11 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3744,13 +3747,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3763,7 +3766,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B38" s="17">
         <f>B37 * (B36 * (B35 / (B35 +B36)))</f>
@@ -3778,17 +3781,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3829,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" s="17">
         <f>B43* ( ( (B45 * (B44-B45))^0.5) / B44 )</f>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B48" s="1">
         <f>H10</f>
@@ -3848,15 +3851,15 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B49">
         <v>0.03</v>
@@ -3865,12 +3868,12 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" s="17">
         <f xml:space="preserve"> B48*B49</f>
@@ -3880,31 +3883,31 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B58">
         <v>110</v>
@@ -3937,7 +3940,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B59">
         <v>8.0000000000000002E-3</v>
@@ -3946,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,12 +3964,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Calculations.xlsx
+++ b/Other/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c2057027910c48/Documents/Electronics/Power Supply/Instructables/Design/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1479" documentId="8_{70FE8CA8-81BC-CC4D-977F-8C41F9D6807F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5A6179A1-9EFD-0246-A855-B14AFD7BC860}"/>
+  <xr:revisionPtr revIDLastSave="1518" documentId="8_{70FE8CA8-81BC-CC4D-977F-8C41F9D6807F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{86D617A1-2AE9-7F49-8FC6-F92D104E50F6}"/>
   <bookViews>
-    <workbookView xWindow="52060" yWindow="13800" windowWidth="28040" windowHeight="17440" xr2:uid="{F418E1D3-CA17-C24F-A068-4F2B25CD11AA}"/>
+    <workbookView xWindow="54140" yWindow="13780" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{F418E1D3-CA17-C24F-A068-4F2B25CD11AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuse Calcs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="215">
   <si>
     <t>Vin</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>LM7805 isn't going to work.  Need to use a DC-DC linear converter</t>
+  </si>
+  <si>
+    <t>Available in a LM7805 footprint.  Won't need a heatsink.</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A2248E-1E2A-7943-A0DF-2A8AB9A95A27}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1858,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA8E27-29D7-784A-BAEE-B48F27D1AF93}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -1979,19 +1985,19 @@
         <v>32</v>
       </c>
       <c r="J4" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>1.2E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="L4" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="M4" s="2">
-        <v>1.4E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="N4" s="2">
-        <v>1.4E-2</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2000,23 +2006,23 @@
       </c>
       <c r="J5" s="2">
         <f>ABS((J2-J3)*J4)</f>
-        <v>0.20652499999999996</v>
+        <v>4.4121249999999996</v>
       </c>
       <c r="K5" s="2">
         <f>ABS((K2-K3)*K4)</f>
-        <v>0.22488000000000002</v>
+        <v>4.4039000000000001</v>
       </c>
       <c r="L5" s="2">
         <f>ABS((L2-L3)*L4)</f>
-        <v>0.20614000000000002</v>
+        <v>4.4039000000000001</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:N5" si="0">ABS((M2-M3)*M4)</f>
-        <v>0.26236000000000004</v>
+        <v>4.4039000000000001</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0.26236000000000004</v>
+        <v>4.4039000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2026,25 +2032,25 @@
       <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="10">
-        <f>J5*$F$3+$B$59</f>
-        <v>28.923974999999999</v>
-      </c>
-      <c r="K6" s="10">
-        <f>K5*$F$3+$B$59</f>
-        <v>29.27272</v>
-      </c>
-      <c r="L6" s="10">
-        <f>L5*$F$3+$B$59</f>
-        <v>28.91666</v>
-      </c>
-      <c r="M6" s="10">
-        <f>M5*$F$3+$B$59</f>
-        <v>29.984840000000002</v>
-      </c>
-      <c r="N6" s="10">
-        <f>N5*$F$3+$B$59</f>
-        <v>29.984840000000002</v>
+      <c r="J6" s="19">
+        <f>J5*$F$3+$B$64</f>
+        <v>108.83037499999999</v>
+      </c>
+      <c r="K6" s="19">
+        <f>K5*$F$3+$B$64</f>
+        <v>108.67410000000001</v>
+      </c>
+      <c r="L6" s="19">
+        <f>L5*$F$3+$B$64</f>
+        <v>108.67410000000001</v>
+      </c>
+      <c r="M6" s="19">
+        <f>M5*$F$3+$B$64</f>
+        <v>108.67410000000001</v>
+      </c>
+      <c r="N6" s="19">
+        <f>N5*$F$3+$B$64</f>
+        <v>108.67410000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2055,24 +2061,24 @@
         <v>56</v>
       </c>
       <c r="J7" s="1">
-        <f>J5*($F$4+$B$64)+$B$59</f>
-        <v>33.880575</v>
+        <f>J5*($F$4+$B$69)+$B$64</f>
+        <v>152.95162499999998</v>
       </c>
       <c r="K7" s="1">
-        <f>K5*($F$4+$B$64)+$B$59</f>
-        <v>34.669840000000001</v>
+        <f>K5*($F$4+$B$69)+$B$64</f>
+        <v>152.7131</v>
       </c>
       <c r="L7" s="1">
-        <f>L5*($F$4+$B$64)+$B$59</f>
-        <v>33.864019999999996</v>
+        <f>L5*($F$4+$B$69)+$B$64</f>
+        <v>152.7131</v>
       </c>
       <c r="M7" s="1">
-        <f>M5*($F$4+$B$64)+$B$59</f>
-        <v>36.281480000000002</v>
+        <f>M5*($F$4+$B$69)+$B$64</f>
+        <v>152.7131</v>
       </c>
       <c r="N7" s="1">
-        <f>N5*($F$4+$B$64)+$B$59</f>
-        <v>36.281480000000002</v>
+        <f>N5*($F$4+$B$69)+$B$64</f>
+        <v>152.7131</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2083,24 +2089,24 @@
         <v>56</v>
       </c>
       <c r="J8" s="1">
-        <f>J5*($F$4+$B$65)+$B$59</f>
-        <v>32.847949999999997</v>
+        <f>J5*($F$4+$B$70)+$B$64</f>
+        <v>130.89099999999999</v>
       </c>
       <c r="K8" s="1">
-        <f>K5*($F$4+$B$65)+$B$59</f>
-        <v>33.545439999999999</v>
+        <f>K5*($F$4+$B$70)+$B$64</f>
+        <v>130.6936</v>
       </c>
       <c r="L8" s="1">
-        <f>L5*($F$4+$B$65)+$B$59</f>
-        <v>32.833320000000001</v>
+        <f>L5*($F$4+$B$70)+$B$64</f>
+        <v>130.6936</v>
       </c>
       <c r="M8" s="1">
-        <f>M5*($F$4+$B$65)+$B$59</f>
-        <v>34.969680000000004</v>
+        <f>M5*($F$4+$B$70)+$B$64</f>
+        <v>130.6936</v>
       </c>
       <c r="N8" s="1">
-        <f>N5*($F$4+$B$65)+$B$59</f>
-        <v>34.969680000000004</v>
+        <f>N5*($F$4+$B$70)+$B$64</f>
+        <v>130.6936</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2111,938 +2117,910 @@
         <v>56</v>
       </c>
       <c r="J9" s="1">
-        <f>J5*($F$4+$B$66)+$B$59</f>
-        <v>31.608799999999999</v>
+        <f>J5*($F$4+$B$71)+$B$64</f>
+        <v>104.41825</v>
       </c>
       <c r="K9" s="1">
-        <f>K5*($F$4+$B$66)+$B$59</f>
-        <v>32.196159999999999</v>
+        <f>K5*($F$4+$B$71)+$B$64</f>
+        <v>104.2702</v>
       </c>
       <c r="L9" s="1">
-        <f>L5*($F$4+$B$66)+$B$59</f>
-        <v>31.59648</v>
+        <f>L5*($F$4+$B$71)+$B$64</f>
+        <v>104.2702</v>
       </c>
       <c r="M9" s="1">
-        <f>M5*($F$4+$B$66)+$B$59</f>
-        <v>33.395520000000005</v>
+        <f>M5*($F$4+$B$71)+$B$64</f>
+        <v>104.2702</v>
       </c>
       <c r="N9" s="1">
-        <f>N5*($F$4+$B$66)+$B$59</f>
-        <v>33.395520000000005</v>
+        <f>N5*($F$4+$B$71)+$B$64</f>
+        <v>104.2702</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="13">
+        <f>J5*($F$4+$B$72)+$B$64</f>
+        <v>76.180649999999986</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" ref="K10:N10" si="1">K5*($F$4+$B$72)+$B$64</f>
+        <v>76.085239999999999</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="1"/>
+        <v>76.085239999999999</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="1"/>
+        <v>76.085239999999999</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="1"/>
+        <v>76.085239999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="13">
+        <f>J5*($F$4+$B$73)+$B$64</f>
+        <v>83.28417125</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" ref="K11:N11" si="2">K5*($F$4+$B$73)+$B$64</f>
+        <v>83.175519000000008</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="2"/>
+        <v>83.175519000000008</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>83.175519000000008</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="2"/>
+        <v>83.175519000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>205</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>206</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>207</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>209</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>125</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I17" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J17" s="1">
         <v>23.8</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K17" s="1">
         <v>23.8</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L17" s="1">
         <v>23.8</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M17" s="1">
         <v>23.8</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N17" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G18" t="s">
         <v>24</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I18" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J18" s="1">
         <v>1.4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K18" s="1">
         <v>15.32</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L18" s="1">
         <v>15.32</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M18" s="1">
         <v>15.32</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N18" s="1">
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J19" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K19" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L19" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M19" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N19" s="2">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="1">
-        <f>(J12-J13)*J14</f>
+      <c r="J20" s="1">
+        <f>(J17-J18)*J19</f>
         <v>3.1360000000000006E-2</v>
       </c>
-      <c r="K15" s="1">
-        <f>(K12-K13)*K14</f>
+      <c r="K20" s="1">
+        <f>(K17-K18)*K19</f>
         <v>1.1872000000000001E-2</v>
       </c>
-      <c r="L15" s="1">
-        <f>(L12-L13)*L14</f>
+      <c r="L20" s="1">
+        <f>(L17-L18)*L19</f>
         <v>1.1872000000000001E-2</v>
       </c>
-      <c r="M15" s="1">
-        <f>(M12-M13)*M14</f>
+      <c r="M20" s="1">
+        <f>(M17-M18)*M19</f>
         <v>1.1872000000000001E-2</v>
       </c>
-      <c r="N15" s="1">
-        <f>(N12-N13)*N14</f>
+      <c r="N20" s="1">
+        <f>(N17-N18)*N19</f>
         <v>3.1528E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H16" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I21" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="10">
-        <f>J15*F12+B59</f>
+      <c r="J21" s="10">
+        <f>J20*F17+B64</f>
         <v>25.75264</v>
       </c>
-      <c r="K16" s="10">
-        <f>K15*F12+B59</f>
+      <c r="K21" s="10">
+        <f>K20*F17+B64</f>
         <v>25.284928000000001</v>
       </c>
-      <c r="L16" s="10">
-        <f>L15*F12+B59</f>
+      <c r="L21" s="10">
+        <f>L20*F17+B64</f>
         <v>25.284928000000001</v>
       </c>
-      <c r="M16" s="10">
-        <f>M15*F12+B59</f>
+      <c r="M21" s="10">
+        <f>M20*F17+B64</f>
         <v>25.284928000000001</v>
       </c>
-      <c r="N16" s="10">
-        <f>N15*F12+B59</f>
+      <c r="N21" s="10">
+        <f>N20*F17+B64</f>
         <v>25.756672000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J21" s="5" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>209</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>150</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I27" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J27" s="1">
         <v>2.93</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K27" s="1">
         <v>16.21</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L27" s="1">
         <v>15.72</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M27" s="1">
         <v>17.18</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N27" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I28" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J28" s="1">
         <v>1.04</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K28" s="1">
         <v>15.19</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L28" s="1">
         <v>15.47</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M28" s="1">
         <v>15.38</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G29" t="s">
         <v>24</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J29" s="1">
         <v>1.53</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K29" s="1">
         <v>1.47</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L29" s="1">
         <v>0.26</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M29" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N29" s="1">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="1">
-        <f>ABS((J22-J23)*J24)</f>
+      <c r="J30" s="1">
+        <f>ABS((J27-J28)*J29)</f>
         <v>2.8917000000000002</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" ref="K25:L25" si="1">ABS((K22-K23)*K24)</f>
+      <c r="K30" s="1">
+        <f t="shared" ref="K30:L30" si="3">ABS((K27-K28)*K29)</f>
         <v>1.4994000000000021</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M25" s="1">
-        <f t="shared" ref="M25:N25" si="2">ABS((M22-M23)*M24)</f>
+      <c r="M30" s="1">
+        <f t="shared" ref="M30:N30" si="4">ABS((M27-M28)*M29)</f>
         <v>1.4093999999999993</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="2"/>
+      <c r="N30" s="1">
+        <f t="shared" si="4"/>
         <v>0.4864</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
         <v>41</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I31" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="1">
-        <f>J25*$F$23+$B$59</f>
+      <c r="J31" s="1">
+        <f>J30*$F$28+$B$64</f>
         <v>140.66800000000001</v>
       </c>
-      <c r="K26" s="1">
-        <f>K25*$F$23+$B$59</f>
+      <c r="K31" s="1">
+        <f>K30*$F$28+$B$64</f>
         <v>84.976000000000084</v>
       </c>
-      <c r="L26" s="1">
-        <f>L25*$F$23+$B$59</f>
+      <c r="L31" s="1">
+        <f>L30*$F$28+$B$64</f>
         <v>27.6</v>
       </c>
-      <c r="M26" s="1">
-        <f>M25*$F$23+$B$59</f>
+      <c r="M31" s="1">
+        <f>M30*$F$28+$B$64</f>
         <v>81.375999999999976</v>
       </c>
-      <c r="N26" s="1">
-        <f>N25*$F$23+$B$59</f>
+      <c r="N31" s="1">
+        <f>N30*$F$28+$B$64</f>
         <v>44.456000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
         <v>44</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I32" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1">
-        <f>J25*($F$24+$B$64)+$B$59</f>
+      <c r="J32" s="1">
+        <f>J30*($F$29+$B$69)+$B$64</f>
         <v>108.8593</v>
       </c>
-      <c r="K27" s="1">
-        <f>K25*($F$24+$B$64)+$B$59</f>
+      <c r="K32" s="1">
+        <f>K30*($F$29+$B$69)+$B$64</f>
         <v>68.482600000000062</v>
       </c>
-      <c r="L27" s="1">
-        <f>L25*($F$24+$B$64)+$B$59</f>
+      <c r="L32" s="1">
+        <f>L30*($F$29+$B$69)+$B$64</f>
         <v>26.885000000000002</v>
       </c>
-      <c r="M27" s="1">
-        <f>M25*($F$24+$B$64)+$B$59</f>
+      <c r="M32" s="1">
+        <f>M30*($F$29+$B$69)+$B$64</f>
         <v>65.872599999999977</v>
       </c>
-      <c r="N27" s="1">
-        <f>N25*($F$24+$B$64)+$B$59</f>
+      <c r="N32" s="1">
+        <f>N30*($F$29+$B$69)+$B$64</f>
         <v>39.105600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
         <v>48</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I33" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="1">
-        <f>J25*($F$24+$B$65)+$B$59</f>
+      <c r="J33" s="1">
+        <f>J30*($F$29+$B$70)+$B$64</f>
         <v>94.400800000000004</v>
       </c>
-      <c r="K28" s="1">
-        <f>K25*($F$24+$B$65)+$B$59</f>
+      <c r="K33" s="1">
+        <f>K30*($F$29+$B$70)+$B$64</f>
         <v>60.985600000000048</v>
       </c>
-      <c r="L28" s="1">
-        <f>L25*($F$24+$B$65)+$B$59</f>
+      <c r="L33" s="1">
+        <f>L30*($F$29+$B$70)+$B$64</f>
         <v>26.56</v>
       </c>
-      <c r="M28" s="1">
-        <f>M25*($F$24+$B$65)+$B$59</f>
+      <c r="M33" s="1">
+        <f>M30*($F$29+$B$70)+$B$64</f>
         <v>58.82559999999998</v>
       </c>
-      <c r="N28" s="1">
-        <f>N25*($F$24+$B$65)+$B$59</f>
+      <c r="N33" s="1">
+        <f>N30*($F$29+$B$70)+$B$64</f>
         <v>36.6736</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
         <v>49</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I34" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="13">
-        <f>J25*($F$24+$B$66)+$B$59</f>
+      <c r="J34" s="13">
+        <f>J30*($F$29+$B$71)+$B$64</f>
         <v>77.050600000000003</v>
       </c>
-      <c r="K29" s="10">
-        <f>K25*($F$24+$B$66)+$B$59</f>
+      <c r="K34" s="10">
+        <f>K30*($F$29+$B$71)+$B$64</f>
         <v>51.989200000000039</v>
       </c>
-      <c r="L29" s="10">
-        <f>L25*($F$24+$B$66)+$B$59</f>
+      <c r="L34" s="10">
+        <f>L30*($F$29+$B$71)+$B$64</f>
         <v>26.17</v>
       </c>
-      <c r="M29" s="10">
-        <f>M25*($F$24+$B$66)+$B$59</f>
+      <c r="M34" s="10">
+        <f>M30*($F$29+$B$71)+$B$64</f>
         <v>50.369199999999992</v>
       </c>
-      <c r="N29" s="10">
-        <f>N25*($F$24+$B$66)+$B$59</f>
+      <c r="N34" s="10">
+        <f>N30*($F$29+$B$71)+$B$64</f>
         <v>33.755200000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H30" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
         <v>54</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I35" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="10">
-        <f>J25*($F$24+$B$67)+$B$59</f>
+      <c r="J35" s="10">
+        <f>J30*($F$29+$B$72)+$B$64</f>
         <v>58.54372</v>
       </c>
-      <c r="K30" s="10">
-        <f>K25*($F$24+$B$67)+$B$59</f>
+      <c r="K35" s="10">
+        <f>K30*($F$29+$B$72)+$B$64</f>
         <v>42.393040000000028</v>
       </c>
-      <c r="L30" s="10">
-        <f>L25*($F$24+$B$67)+$B$59</f>
+      <c r="L35" s="10">
+        <f>L30*($F$29+$B$72)+$B$64</f>
         <v>25.754000000000001</v>
       </c>
-      <c r="M30" s="10">
-        <f>M25*($F$24+$B$67)+$B$59</f>
+      <c r="M35" s="10">
+        <f>M30*($F$29+$B$72)+$B$64</f>
         <v>41.349039999999988</v>
       </c>
-      <c r="N30" s="10">
-        <f>N25*($F$24+$B$67)+$B$59</f>
+      <c r="N35" s="10">
+        <f>N30*($F$29+$B$72)+$B$64</f>
         <v>30.642240000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J32" s="5" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>209</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="F33">
+      <c r="F38">
         <v>175</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G38" t="s">
         <v>6</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I38" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J38" s="1">
         <v>15</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="N33">
-        <f>(J33+F42)/(F41+F42)</f>
+      <c r="K38" s="1"/>
+      <c r="N38">
+        <f>(J38+F47)/(F46+F47)</f>
         <v>0.63265306122448983</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="N34">
-        <f>J34^2</f>
-        <v>9</v>
-      </c>
-      <c r="O34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>0.75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="N35">
-        <f>(1+(F45*F43))*F38</f>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="O35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" t="s">
-        <v>208</v>
-      </c>
-      <c r="J36" s="2">
-        <f>(N33*N34*N35)+(N36*N37)</f>
-        <v>0.16442354852564398</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="N36">
-        <f>F44*(F41^1.85)</f>
-        <v>893.98618140963913</v>
-      </c>
-      <c r="O36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" s="10">
-        <f>J36*$F$34+$B$59</f>
-        <v>35.194260008589929</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="N37">
-        <f>J34*F39*F40</f>
-        <v>1.2659999999999999E-4</v>
-      </c>
-      <c r="O37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="10">
-        <f>J36*($F$35+$F$36+$B$64)+$B$59</f>
-        <v>29.480541697323797</v>
-      </c>
-      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="N39">
+        <f>J39^2</f>
+        <v>9</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>0.75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="N40">
+        <f>(1+(F50*F48))*F43</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="2">
+        <f>(N38*N39*N40)+(N41*N42)</f>
+        <v>0.16442354852564398</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="N41">
+        <f>F49*(F46^1.85)</f>
+        <v>893.98618140963913</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="10">
+        <f>J41*$F$39+$B$64</f>
+        <v>35.194260008589929</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="N42">
+        <f>J39*F44*F45</f>
+        <v>1.2659999999999999E-4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="10">
+        <f>J41*($F$40+$F$41+$B$69)+$B$64</f>
+        <v>29.480541697323797</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
         <v>105</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <f>211*0.000000000001</f>
         <v>2.11E-10</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G44" t="s">
         <v>98</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H44" t="s">
         <v>48</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I44" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="10">
-        <f>J36*($F$35+$F$36+$B$65)+$B$59</f>
+      <c r="J44" s="10">
+        <f>J41*($F$40+$F$41+$B$70)+$B$64</f>
         <v>28.658423954695579</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="M39" t="s">
+      <c r="K44" s="1"/>
+      <c r="M44" t="s">
         <v>121</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N44" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40">
-        <v>200000</v>
-      </c>
-      <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="10">
-        <f>J36*($F$35+$F$36+$B$66)+$B$59</f>
-        <v>27.671882663541716</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="10">
-        <f>J36*($F$35+$F$36+$B$67)+$B$59</f>
-        <v>26.619571952977594</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42">
-        <v>0.5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="10">
-        <f>J36*($F$35+$F$36+$B$68)+$B$59</f>
-        <v>26.884293866103881</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44">
-        <v>2.5</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+        <v>200000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="10">
+        <f>J41*($F$40+$F$41+$B$71)+$B$64</f>
+        <v>27.671882663541716</v>
+      </c>
+      <c r="K45" s="19"/>
       <c r="L45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J46" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="K46" s="7"/>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="10">
+        <f>J41*($F$40+$F$41+$B$72)+$B$64</f>
+        <v>26.619571952977594</v>
+      </c>
+      <c r="K46" s="19"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="s">
         <v>3</v>
       </c>
-      <c r="G47" t="s">
-        <v>4</v>
+      <c r="H47" t="s">
+        <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>24</v>
-      </c>
-      <c r="K47" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="J47" s="10">
+        <f>J41*($F$40+$F$41+$B$73)+$B$64</f>
+        <v>26.884293866103881</v>
+      </c>
+      <c r="K47" s="19"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48">
         <v>25</v>
       </c>
-      <c r="F48">
-        <v>0.5</v>
-      </c>
       <c r="G48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="2">
-        <f>F47 * (F48 * (F49/(J47+F48)))</f>
-        <v>1.4693877551020407</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
       </c>
       <c r="F49">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s">
-        <v>180</v>
-      </c>
-      <c r="J49" s="17">
-        <f>$J$48*$F$50+$B$59</f>
-        <v>41.163265306122447</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -3050,309 +3028,418 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="F50">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51">
-        <v>150</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
+      <c r="J51" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O52" s="5"/>
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>24</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F53">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53">
-        <f>J53</f>
-        <v>3</v>
-      </c>
-      <c r="L53">
-        <v>0.5</v>
-      </c>
-      <c r="M53">
-        <v>1.5</v>
-      </c>
-      <c r="N53">
-        <v>0.5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J53" s="2">
+        <f>F52 * (F53 * (F54/(J52+F53)))</f>
+        <v>1.4693877551020407</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54">
-        <f>$F$56*2*J53</f>
-        <v>5.4</v>
-      </c>
-      <c r="K54">
-        <f>$F$56*2*K53</f>
-        <v>5.4</v>
-      </c>
-      <c r="L54">
-        <f>$F$56*2*L53</f>
-        <v>0.9</v>
-      </c>
-      <c r="M54">
-        <f>$F$56*2*M53</f>
-        <v>2.7</v>
-      </c>
-      <c r="N54">
-        <f>$F$56*2*N53</f>
-        <v>0.9</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J54" s="17">
+        <f>$J$53*$F$55+$B$64</f>
+        <v>41.163265306122447</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
       </c>
-      <c r="H55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <f>J58</f>
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>0.5</v>
+      </c>
+      <c r="M58">
+        <v>1.5</v>
+      </c>
+      <c r="N58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <f>$F$61*2*J58</f>
+        <v>5.4</v>
+      </c>
+      <c r="K59">
+        <f>$F$61*2*K58</f>
+        <v>5.4</v>
+      </c>
+      <c r="L59">
+        <f>$F$61*2*L58</f>
+        <v>0.9</v>
+      </c>
+      <c r="M59">
+        <f>$F$61*2*M58</f>
+        <v>2.7</v>
+      </c>
+      <c r="N59">
+        <f>$F$61*2*N58</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E61" t="s">
         <v>25</v>
       </c>
-      <c r="F56">
+      <c r="F61">
         <v>0.9</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G61" t="s">
         <v>26</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H61" t="s">
         <v>44</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
         <v>31</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H62" t="s">
         <v>48</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H58" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
         <v>49</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I63" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J59" s="11">
-        <f>J54*($F$55+$B$67)+$B$59</f>
-        <v>82.240000000000009</v>
-      </c>
-      <c r="K59" s="11">
-        <f t="shared" ref="K59:N59" si="3">K54*($F$55+$B$67)+$B$59</f>
-        <v>82.240000000000009</v>
-      </c>
-      <c r="L59" s="6">
-        <f t="shared" si="3"/>
-        <v>34.54</v>
-      </c>
-      <c r="M59" s="6">
-        <f t="shared" si="3"/>
-        <v>53.620000000000005</v>
-      </c>
-      <c r="N59" s="6">
-        <f t="shared" si="3"/>
-        <v>34.54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" s="11">
+        <f>J59*($F$60+$B$72)+$B$64</f>
+        <v>82.240000000000009</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" ref="K64:N64" si="5">K59*($F$60+$B$72)+$B$64</f>
+        <v>82.240000000000009</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="5"/>
+        <v>34.54</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="5"/>
+        <v>53.620000000000005</v>
+      </c>
+      <c r="N64" s="6">
+        <f t="shared" si="5"/>
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>46</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>47</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>53</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>8.6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" xr:uid="{91A4A632-C463-C846-A67E-DDFF0A8A702B}"/>
+    <hyperlink ref="E42" r:id="rId1" xr:uid="{91A4A632-C463-C846-A67E-DDFF0A8A702B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3364,7 +3451,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
